--- a/CashFlow/PKI_cashflow.xlsx
+++ b/CashFlow/PKI_cashflow.xlsx
@@ -75,8 +75,8 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="14.3"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="14.3"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="14.3"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="14.3"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1873000000.0</v>
+        <v>-122513000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1715000000.0</v>
+        <v>-82174000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1230083000.0</v>
+        <v>-85864000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>740074000.0</v>
+        <v>-25924000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>308633000.0</v>
+        <v>-9607000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-37237000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>62753000.0</v>
+        <v>1073000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>57785000.0</v>
+        <v>982000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>24857000.0</v>
+        <v>686556000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-19986000.0</v>
+        <v>404456000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-102475000.0</v>
+        <v>92131000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-47461000.0</v>
